--- a/output/INFINITY_23000848000116.xlsx
+++ b/output/INFINITY_23000848000116.xlsx
@@ -1087,10 +1087,10 @@
         <v>44165</v>
       </c>
       <c r="B64">
-        <v>0.6666100399999999</v>
+        <v>0.67440689</v>
       </c>
       <c r="C64">
-        <v>0.01351776804955507</v>
+        <v>0.01825927675294503</v>
       </c>
     </row>
   </sheetData>

--- a/output/INFINITY_23000848000116.xlsx
+++ b/output/INFINITY_23000848000116.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>INFINITY HEDGE  FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,711 +383,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42277</v>
       </c>
       <c r="B2">
-        <v>0.01380209999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42308</v>
       </c>
       <c r="B3">
-        <v>0.0287467400000001</v>
-      </c>
-      <c r="C3">
         <v>0.01474118074918196</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42338</v>
       </c>
       <c r="B4">
-        <v>0.0428097300000001</v>
-      </c>
-      <c r="C4">
         <v>0.01367002144764995</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42369</v>
       </c>
       <c r="B5">
-        <v>0.05855027999999995</v>
-      </c>
-      <c r="C5">
         <v>0.01509436433816158</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42400</v>
       </c>
       <c r="B6">
-        <v>0.07262210999999996</v>
-      </c>
-      <c r="C6">
         <v>0.01329349230345489</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42429</v>
       </c>
       <c r="B7">
-        <v>0.08630483999999994</v>
-      </c>
-      <c r="C7">
         <v>0.01275633783085084</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42460</v>
       </c>
       <c r="B8">
-        <v>0.10238641</v>
-      </c>
-      <c r="C8">
         <v>0.01480392004881437</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42490</v>
       </c>
       <c r="B9">
-        <v>0.11695349</v>
-      </c>
-      <c r="C9">
         <v>0.01321413242022818</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42521</v>
       </c>
       <c r="B10">
-        <v>0.13213933</v>
-      </c>
-      <c r="C10">
         <v>0.01359576753728575</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42551</v>
       </c>
       <c r="B11">
-        <v>0.1489008599999999</v>
-      </c>
-      <c r="C11">
         <v>0.01480518303343459</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42582</v>
       </c>
       <c r="B12">
-        <v>0.1656942400000001</v>
-      </c>
-      <c r="C12">
         <v>0.01461690959131157</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42613</v>
       </c>
       <c r="B13">
-        <v>0.1823991199999999</v>
-      </c>
-      <c r="C13">
         <v>0.01433041309357397</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42643</v>
       </c>
       <c r="B14">
-        <v>0.1988591500000001</v>
-      </c>
-      <c r="C14">
         <v>0.0139208747043047</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42674</v>
       </c>
       <c r="B15">
-        <v>0.21431779</v>
-      </c>
-      <c r="C15">
         <v>0.01289445886950102</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42704</v>
       </c>
       <c r="B16">
-        <v>0.2295638099999999</v>
-      </c>
-      <c r="C16">
         <v>0.01255521423267636</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42735</v>
       </c>
       <c r="B17">
-        <v>0.2460813900000001</v>
-      </c>
-      <c r="C17">
         <v>0.01343369076550815</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42766</v>
       </c>
       <c r="B18">
-        <v>0.26227252</v>
-      </c>
-      <c r="C18">
         <v>0.01299363759858418</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42794</v>
       </c>
       <c r="B19">
-        <v>0.27528515</v>
-      </c>
-      <c r="C19">
         <v>0.0103088911418272</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42825</v>
       </c>
       <c r="B20">
-        <v>0.29157539</v>
-      </c>
-      <c r="C20">
         <v>0.01277380200028211</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42855</v>
       </c>
       <c r="B21">
-        <v>0.3037228599999999</v>
-      </c>
-      <c r="C21">
         <v>0.009405157526267249</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42886</v>
       </c>
       <c r="B22">
-        <v>0.31778777</v>
-      </c>
-      <c r="C22">
         <v>0.01078826676399625</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42916</v>
       </c>
       <c r="B23">
-        <v>0.3315830799999999</v>
-      </c>
-      <c r="C23">
         <v>0.01046853697845429</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42947</v>
       </c>
       <c r="B24">
-        <v>0.3430941700000001</v>
-      </c>
-      <c r="C24">
         <v>0.008644665265647777</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42978</v>
       </c>
       <c r="B25">
-        <v>0.3571930699999999</v>
-      </c>
-      <c r="C25">
         <v>0.01049732797217029</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43008</v>
       </c>
       <c r="B26">
-        <v>0.3681869600000001</v>
-      </c>
-      <c r="C26">
         <v>0.008100461344088705</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43039</v>
       </c>
       <c r="B27">
-        <v>0.37907881</v>
-      </c>
-      <c r="C27">
         <v>0.007960790680244356</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43069</v>
       </c>
       <c r="B28">
-        <v>0.38849289</v>
-      </c>
-      <c r="C28">
         <v>0.00682635389053643</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43100</v>
       </c>
       <c r="B29">
-        <v>0.39632621</v>
-      </c>
-      <c r="C29">
         <v>0.005641598928173064</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43131</v>
       </c>
       <c r="B30">
-        <v>0.40556459</v>
-      </c>
-      <c r="C30">
         <v>0.006616204676126447</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43159</v>
       </c>
       <c r="B31">
-        <v>0.41275533</v>
-      </c>
-      <c r="C31">
         <v>0.005115908618614329</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43190</v>
       </c>
       <c r="B32">
-        <v>0.4221145500000001</v>
-      </c>
-      <c r="C32">
         <v>0.006624798931036402</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43220</v>
       </c>
       <c r="B33">
-        <v>0.4301954100000001</v>
-      </c>
-      <c r="C33">
         <v>0.005682284876418642</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43251</v>
       </c>
       <c r="B34">
-        <v>0.4388841400000001</v>
-      </c>
-      <c r="C34">
         <v>0.006075204786176736</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43281</v>
       </c>
       <c r="B35">
-        <v>0.4500613099999999</v>
-      </c>
-      <c r="C35">
         <v>0.00776794301172834</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43312</v>
       </c>
       <c r="B36">
-        <v>0.4602169199999999</v>
-      </c>
-      <c r="C36">
         <v>0.007003572835137639</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43343</v>
       </c>
       <c r="B37">
-        <v>0.4690786</v>
-      </c>
-      <c r="C37">
         <v>0.006068742170170172</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43373</v>
       </c>
       <c r="B38">
-        <v>0.47874631</v>
-      </c>
-      <c r="C38">
         <v>0.006580798331689008</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43404</v>
       </c>
       <c r="B39">
-        <v>0.4882606899999999</v>
-      </c>
-      <c r="C39">
         <v>0.006434085370600195</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43434</v>
       </c>
       <c r="B40">
-        <v>0.4965091399999999</v>
-      </c>
-      <c r="C40">
         <v>0.005542342182000448</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43465</v>
       </c>
       <c r="B41">
-        <v>0.5061550699999999</v>
-      </c>
-      <c r="C41">
         <v>0.006445620505866057</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43496</v>
       </c>
       <c r="B42">
-        <v>0.5166189800000001</v>
-      </c>
-      <c r="C42">
         <v>0.006947432046289892</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43524</v>
       </c>
       <c r="B43">
-        <v>0.52574298</v>
-      </c>
-      <c r="C43">
         <v>0.006016013329860792</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43555</v>
       </c>
       <c r="B44">
-        <v>0.5343746199999999</v>
-      </c>
-      <c r="C44">
         <v>0.005657335549398956</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43585</v>
       </c>
       <c r="B45">
-        <v>0.5454955100000001</v>
-      </c>
-      <c r="C45">
         <v>0.0072478323448808</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43616</v>
       </c>
       <c r="B46">
-        <v>0.5593248099999999</v>
-      </c>
-      <c r="C46">
         <v>0.008948133404800274</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43646</v>
       </c>
       <c r="B47">
-        <v>0.5704507299999999</v>
-      </c>
-      <c r="C47">
         <v>0.007135088166781545</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43677</v>
       </c>
       <c r="B48">
-        <v>0.5835648</v>
-      </c>
-      <c r="C48">
         <v>0.008350513486023337</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43708</v>
       </c>
       <c r="B49">
-        <v>0.5863806</v>
-      </c>
-      <c r="C49">
         <v>0.001778140054641275</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43738</v>
       </c>
       <c r="B50">
-        <v>0.6125866499999999</v>
-      </c>
-      <c r="C50">
         <v>0.01651939641722788</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43769</v>
       </c>
       <c r="B51">
-        <v>0.62547902</v>
-      </c>
-      <c r="C51">
         <v>0.007994838602936483</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43799</v>
       </c>
       <c r="B52">
-        <v>0.6340126399999999</v>
-      </c>
-      <c r="C52">
         <v>0.005249910884731035</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43830</v>
       </c>
       <c r="B53">
-        <v>0.6540511099999999</v>
-      </c>
-      <c r="C53">
         <v>0.01226335066783824</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43861</v>
       </c>
       <c r="B54">
-        <v>0.6486493099999999</v>
-      </c>
-      <c r="C54">
         <v>-0.00326579993045073</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43890</v>
       </c>
       <c r="B55">
-        <v>0.66389067</v>
-      </c>
-      <c r="C55">
         <v>0.009244755635751334</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43921</v>
       </c>
       <c r="B56">
-        <v>0.6537018400000001</v>
-      </c>
-      <c r="C56">
         <v>-0.006123497284830526</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43951</v>
       </c>
       <c r="B57">
-        <v>0.6915419700000001</v>
-      </c>
-      <c r="C57">
         <v>0.02288207528389763</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43982</v>
       </c>
       <c r="B58">
-        <v>0.71528357</v>
-      </c>
-      <c r="C58">
         <v>0.0140354779373284</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>44012</v>
       </c>
       <c r="B59">
-        <v>0.7053185500000001</v>
-      </c>
-      <c r="C59">
         <v>-0.005809546697867485</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>44043</v>
       </c>
       <c r="B60">
-        <v>0.7173099300000001</v>
-      </c>
-      <c r="C60">
         <v>0.007031753686136843</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>44074</v>
       </c>
       <c r="B61">
-        <v>0.74827778</v>
-      </c>
-      <c r="C61">
         <v>0.01803276709638535</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44104</v>
       </c>
       <c r="B62">
-        <v>0.65740186</v>
-      </c>
-      <c r="C62">
         <v>-0.05198025224572722</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44135</v>
       </c>
       <c r="B63">
-        <v>0.64438167</v>
-      </c>
-      <c r="C63">
         <v>-0.007855783388586279</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44165</v>
       </c>
       <c r="B64">
-        <v>0.67440689</v>
-      </c>
-      <c r="C64">
-        <v>0.01825927675294503</v>
+        <v>0.0162654209104629</v>
       </c>
     </row>
   </sheetData>
